--- a/Data/indiumSamp.xlsx
+++ b/Data/indiumSamp.xlsx
@@ -505,7 +505,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,24 +514,24 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44848.07789351852</v>
+        <v>43892.35721064815</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44848.15011574074</v>
+        <v>43892.41623842593</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brooke Fox</t>
+          <t>Keith Castaneda</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.51</v>
+        <v>4.16</v>
       </c>
       <c r="H2" t="n">
-        <v>77.65000000000001</v>
+        <v>62.35</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -545,85 +545,85 @@
         </is>
       </c>
       <c r="L2" s="3" t="n">
-        <v>44848</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44320.86085648148</v>
+        <v>45001.56465277778</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320.86641203704</v>
+        <v>45001.57715277778</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Danielle Knight</t>
+          <t>Ernest Mueller</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.03</v>
+        <v>2.34</v>
       </c>
       <c r="H3" t="n">
-        <v>27.76</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L3" s="3" t="n">
-        <v>44320</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45092.27045138889</v>
+        <v>43907.36377314815</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092.3440625</v>
+        <v>43907.37418981481</v>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Christopher Kim</t>
+          <t>Ashley Lin</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>64.09</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -633,43 +633,43 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L4" s="3" t="n">
-        <v>45092</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44431.1009837963</v>
+        <v>43860.31653935185</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44431.16487268519</v>
+        <v>43860.39292824074</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olivia Pugh</t>
+          <t>Katherine Reed</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
       <c r="H5" t="n">
-        <v>113.05</v>
+        <v>73.53</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -679,43 +679,43 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L5" s="3" t="n">
-        <v>44431</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>East Melbourne</t>
-        </is>
-      </c>
       <c r="C6" s="2" t="n">
-        <v>44391.00988425926</v>
+        <v>44437.98259259259</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44391.01821759259</v>
+        <v>44438.05064814815</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kim Spencer</t>
+          <t>Deborah Winters</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.67</v>
+        <v>2.71</v>
       </c>
       <c r="H6" t="n">
-        <v>103.11</v>
+        <v>44.86</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -725,95 +725,95 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L6" s="3" t="n">
-        <v>44391</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44730.55574074074</v>
+        <v>44063.9909837963</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44730.60921296296</v>
+        <v>44064.03542824074</v>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Carrie Glover</t>
+          <t>Eric Rivera</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.19</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>73.77</v>
+        <v>98.52</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L7" s="3" t="n">
-        <v>44730</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44258.87634259259</v>
+        <v>44607.58527777778</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44258.91175925926</v>
+        <v>44607.63458333333</v>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Susan Brown</t>
+          <t>Joseph Jones</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.33</v>
+        <v>1.58</v>
       </c>
       <c r="H8" t="n">
-        <v>42.5</v>
+        <v>51.49</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -821,45 +821,45 @@
         </is>
       </c>
       <c r="L8" s="3" t="n">
-        <v>44258</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44089.88482638889</v>
+        <v>44055.61978009259</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44089.91538194445</v>
+        <v>44055.6371412037</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>April Johns</t>
+          <t>Brian Lewis</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="H9" t="n">
-        <v>91.88</v>
+        <v>25.03</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -867,42 +867,42 @@
         </is>
       </c>
       <c r="L9" s="3" t="n">
-        <v>44089</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44633.85844907408</v>
+        <v>44631.7158449074</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44633.92094907408</v>
+        <v>44631.76515046296</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ryan Kaufman</t>
+          <t>Jennifer Harvey</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>110.78</v>
+        <v>21.03</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -913,45 +913,45 @@
         </is>
       </c>
       <c r="L10" s="3" t="n">
-        <v>44633</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44043.67028935185</v>
+        <v>44249.48074074074</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44043.68765046296</v>
+        <v>44249.51962962963</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Michael Miller</t>
+          <t>Joshua Martin</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.04</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
-        <v>23.91</v>
+        <v>20.87</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -959,39 +959,39 @@
         </is>
       </c>
       <c r="L11" s="3" t="n">
-        <v>44043</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43850.33295138889</v>
+        <v>43993.37068287037</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43850.38572916666</v>
+        <v>43993.41929398148</v>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Robert Wilson</t>
+          <t>Joshua Mann</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>1.16</v>
       </c>
       <c r="H12" t="n">
-        <v>51.58</v>
+        <v>34.74</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1001,89 +1001,89 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L12" s="3" t="n">
-        <v>43850</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44117.19011574074</v>
+        <v>44415.88657407407</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44117.26719907407</v>
+        <v>44415.96990740741</v>
       </c>
       <c r="E13" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sierra Bryant</t>
+          <t>Karen Conley DDS</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>2.73</v>
       </c>
       <c r="H13" t="n">
-        <v>45</v>
+        <v>33.32</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L13" s="3" t="n">
-        <v>44117</v>
+        <v>44415</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44754.83430555555</v>
+        <v>44679.84372685185</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44754.89819444445</v>
+        <v>44679.86456018518</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amber Hernandez</t>
+          <t>Ariel Hudson</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.54</v>
+        <v>4.09</v>
       </c>
       <c r="H14" t="n">
-        <v>23.64</v>
+        <v>64.7</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1093,57 +1093,57 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L14" s="3" t="n">
-        <v>44754</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44413.19606481482</v>
+        <v>44384.43054398148</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44413.25717592592</v>
+        <v>44384.49929398148</v>
       </c>
       <c r="E15" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Elizabeth Brown</t>
+          <t>Loretta Brewer</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.75</v>
+        <v>2.85</v>
       </c>
       <c r="H15" t="n">
-        <v>117.14</v>
+        <v>44.81</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L15" s="3" t="n">
-        <v>44413</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="16">
@@ -1154,258 +1154,258 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44776.5974537037</v>
+        <v>45129.97703703704</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44776.64189814815</v>
+        <v>45130.03745370371</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kevin Gordon</t>
+          <t>Dr. John Mcguire</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.52</v>
+        <v>2.39</v>
       </c>
       <c r="H16" t="n">
-        <v>55.36</v>
+        <v>115.4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L16" s="3" t="n">
-        <v>44776</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>South Wharf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Docklands</t>
-        </is>
-      </c>
       <c r="C17" s="2" t="n">
-        <v>44268.40388888889</v>
+        <v>44910.44322916667</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44268.46083333333</v>
+        <v>44910.51475694445</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Karen Smith</t>
+          <t>Emily Morris</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.51</v>
+        <v>4.25</v>
       </c>
       <c r="H17" t="n">
-        <v>43.95</v>
+        <v>61.64</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L17" s="3" t="n">
-        <v>44268</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>East Melbourne</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Parkville</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>West Melbourne</t>
-        </is>
-      </c>
       <c r="C18" s="2" t="n">
-        <v>44173.40375</v>
+        <v>43948.13319444445</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44173.41138888889</v>
+        <v>43948.17138888889</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Andre Wright</t>
+          <t>Joel Murray</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.91</v>
+        <v>1.04</v>
       </c>
       <c r="H18" t="n">
-        <v>98.09999999999999</v>
+        <v>51.85</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L18" s="3" t="n">
-        <v>44173</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44343.81503472223</v>
+        <v>43999.82243055556</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44343.8678125</v>
+        <v>43999.86131944445</v>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Amy Hernandez</t>
+          <t>Toni Long</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.87</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>73.09</v>
+        <v>54.85</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L19" s="3" t="n">
-        <v>44343</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44734.98523148148</v>
+        <v>44793.61556712963</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44735.0199537037</v>
+        <v>44793.63987268518</v>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jennifer Park</t>
+          <t>Anthony White</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>58.87</v>
+        <v>76.75</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L20" s="3" t="n">
-        <v>44734</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45090.78291666666</v>
+        <v>44746.03030092592</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45090.86</v>
+        <v>44746.05043981481</v>
       </c>
       <c r="E21" t="n">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Micheal Johnson</t>
+          <t>Amanda Gonzalez</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="H21" t="n">
-        <v>94.59</v>
+        <v>35.22</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L21" s="3" t="n">
-        <v>45090</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="22">
@@ -1430,80 +1430,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44975.70857638889</v>
+        <v>43925.39738425926</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44975.73982638889</v>
+        <v>43925.42168981482</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jessica Tyler</t>
+          <t>Michael Williams</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.75</v>
+        <v>2.65</v>
       </c>
       <c r="H22" t="n">
-        <v>39.95</v>
+        <v>42.81</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L22" s="3" t="n">
-        <v>44975</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>East Melbourne</t>
-        </is>
-      </c>
       <c r="C23" s="2" t="n">
-        <v>43846.86082175926</v>
+        <v>44136.65083333333</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43846.88304398148</v>
+        <v>44136.69458333333</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lawrence Day</t>
+          <t>Jessica Jackson</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.73</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>105.09</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="L23" s="3" t="n">
-        <v>43846</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1526,24 +1526,24 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44968.90141203703</v>
+        <v>44782.80015046296</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44968.9555787037</v>
+        <v>44782.80501157408</v>
       </c>
       <c r="E24" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Karen Hall</t>
+          <t>Tammy Wright</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.81</v>
+        <v>4.26</v>
       </c>
       <c r="H24" t="n">
-        <v>42.53</v>
+        <v>75.11</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1557,39 +1557,39 @@
         </is>
       </c>
       <c r="L24" s="3" t="n">
-        <v>44968</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44771.2425</v>
+        <v>44674.54984953703</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44771.31333333333</v>
+        <v>44674.60609953704</v>
       </c>
       <c r="E25" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kari Burns</t>
+          <t>Luis Bush</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>58.22</v>
+        <v>43.66</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1599,46 +1599,46 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L25" s="3" t="n">
-        <v>44771</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43951.04458333334</v>
+        <v>45094.60063657408</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43951.07583333334</v>
+        <v>45094.62563657408</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Samantha Graham</t>
+          <t>Thomas Dyer</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="H26" t="n">
-        <v>25.46</v>
+        <v>47.57</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1649,85 +1649,85 @@
         </is>
       </c>
       <c r="L26" s="3" t="n">
-        <v>43951</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44066.92368055556</v>
+        <v>44247.33413194444</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44066.986875</v>
+        <v>44247.39107638889</v>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Billy Dawson</t>
+          <t>Rebecca Alvarez</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.36</v>
+        <v>3.59</v>
       </c>
       <c r="H27" t="n">
-        <v>105.85</v>
+        <v>38.16</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L27" s="3" t="n">
-        <v>44066</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44888.53274305556</v>
+        <v>44614.46395833333</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44888.61399305556</v>
+        <v>44614.48340277778</v>
       </c>
       <c r="E28" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stephanie Fleming</t>
+          <t>Joshua Arnold</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>2.31</v>
       </c>
       <c r="H28" t="n">
-        <v>63.69</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1741,85 +1741,85 @@
         </is>
       </c>
       <c r="L28" s="3" t="n">
-        <v>44888</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44588.35393518519</v>
+        <v>43945.60788194444</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44588.42546296296</v>
+        <v>43945.63149305555</v>
       </c>
       <c r="E29" t="n">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gordon White</t>
+          <t>Andrew Durham</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.59</v>
+        <v>1.39</v>
       </c>
       <c r="H29" t="n">
-        <v>49.68</v>
+        <v>28.13</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L29" s="3" t="n">
-        <v>44588</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44442.94805555556</v>
+        <v>44026.60813657408</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44442.98416666667</v>
+        <v>44026.64633101852</v>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Michelle Morgan</t>
+          <t>Tara Wilcox</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
-        <v>102.15</v>
+        <v>103.12</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1829,89 +1829,89 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L30" s="3" t="n">
-        <v>44442</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44503.18928240741</v>
+        <v>44737.27902777777</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44503.24622685185</v>
+        <v>44737.32972222222</v>
       </c>
       <c r="E31" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kevin Burke</t>
+          <t>Shelby Salas</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>2.58</v>
       </c>
       <c r="H31" t="n">
-        <v>101.09</v>
+        <v>119.55</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L31" s="3" t="n">
-        <v>44503</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44524.56403935186</v>
+        <v>45140.46486111111</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44524.62931712963</v>
+        <v>45140.50027777778</v>
       </c>
       <c r="E32" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Travis Alexander</t>
+          <t>Jeanne Welch</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.11</v>
+        <v>2.57</v>
       </c>
       <c r="H32" t="n">
-        <v>28.88</v>
+        <v>28.57</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="L32" s="3" t="n">
-        <v>44524</v>
+        <v>45140</v>
       </c>
     </row>
     <row r="33">
@@ -1936,42 +1936,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43916.44600694445</v>
+        <v>45067.32740740741</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43916.52725694444</v>
+        <v>45067.34268518518</v>
       </c>
       <c r="E33" t="n">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Shari Olson</t>
+          <t>Pamela Price</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.08</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>52.17</v>
+        <v>51.86</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L33" s="3" t="n">
-        <v>43916</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="34">
@@ -1982,80 +1982,80 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44455.58634259259</v>
+        <v>44168.15944444444</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44455.60092592592</v>
+        <v>44168.18861111111</v>
       </c>
       <c r="E34" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Emma Williams</t>
+          <t>Robert Fields</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.36</v>
+        <v>4.77</v>
       </c>
       <c r="H34" t="n">
-        <v>91.81999999999999</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L34" s="3" t="n">
-        <v>44455</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44756.95658564815</v>
+        <v>44656.96934027778</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44756.96839120371</v>
+        <v>44657.03253472222</v>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lance Shah</t>
+          <t>Stephen Patterson DVM</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>4.23</v>
       </c>
       <c r="H35" t="n">
-        <v>97.78</v>
+        <v>116.54</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2063,39 +2063,39 @@
         </is>
       </c>
       <c r="L35" s="3" t="n">
-        <v>44756</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44897.82895833333</v>
+        <v>43972.26553240741</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44897.87618055556</v>
+        <v>43972.2856712963</v>
       </c>
       <c r="E36" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Raymond Hall</t>
+          <t>Jonathan Monroe</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.61</v>
+        <v>2.33</v>
       </c>
       <c r="H36" t="n">
-        <v>55.96</v>
+        <v>28.35</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2105,201 +2105,201 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L36" s="3" t="n">
-        <v>44897</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45101.22053240741</v>
+        <v>44063.9916087963</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45101.24622685185</v>
+        <v>44064.0666087963</v>
       </c>
       <c r="E37" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Diana Washington</t>
+          <t>Lawrence Cisneros</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
-        <v>97.04000000000001</v>
+        <v>79.92</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L37" s="3" t="n">
-        <v>45101</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44810.90887731482</v>
+        <v>43847.19549768518</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44810.92623842593</v>
+        <v>43847.24341435185</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Michele Mason</t>
+          <t>Edward Leach</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.84</v>
       </c>
       <c r="H38" t="n">
-        <v>70.72</v>
+        <v>56.47</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L38" s="3" t="n">
-        <v>44810</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Docklands</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Southbank</t>
-        </is>
-      </c>
       <c r="C39" s="2" t="n">
-        <v>44394.44659722222</v>
+        <v>44203.88018518518</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44394.48756944444</v>
+        <v>44203.93643518518</v>
       </c>
       <c r="E39" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Wendy Miranda</t>
+          <t>Shannon Houston</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.44</v>
+        <v>4.01</v>
       </c>
       <c r="H39" t="n">
-        <v>38.75</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L39" s="3" t="n">
-        <v>44394</v>
+        <v>44203</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44049.11105324074</v>
+        <v>44451.38689814815</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44049.13813657407</v>
+        <v>44451.45842592593</v>
       </c>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jacob Martinez</t>
+          <t>Emily Logan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.05</v>
+        <v>3.71</v>
       </c>
       <c r="H40" t="n">
-        <v>35.76</v>
+        <v>86.7</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L40" s="3" t="n">
-        <v>44049</v>
+        <v>44451</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2308,24 +2308,24 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44476.83034722223</v>
+        <v>44958.95434027778</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44476.89284722223</v>
+        <v>44959.0328125</v>
       </c>
       <c r="E41" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jennifer Sullivan</t>
+          <t>Michelle Gonzalez</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.57</v>
+        <v>2.51</v>
       </c>
       <c r="H41" t="n">
-        <v>30.67</v>
+        <v>50.53</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2335,141 +2335,141 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L41" s="3" t="n">
-        <v>44476</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44084.1758449074</v>
+        <v>43863.53063657408</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44084.18417824074</v>
+        <v>43863.59452546296</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kelly Morris</t>
+          <t>Alicia Martin</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.19</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
-        <v>39.44</v>
+        <v>28.91</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L42" s="3" t="n">
-        <v>44084</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44360.46282407407</v>
+        <v>44765.00737268518</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44360.47532407408</v>
+        <v>44765.05806712963</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Scott Morales</t>
+          <t>Stacy Martinez</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="H43" t="n">
-        <v>24.55</v>
+        <v>84.41</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L43" s="3" t="n">
-        <v>44360</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>44082.50768518518</v>
+        <v>44337.75116898148</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44082.52782407407</v>
+        <v>44337.82616898148</v>
       </c>
       <c r="E44" t="n">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Derek Day</t>
+          <t>Jade Martinez</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.61</v>
+        <v>1.66</v>
       </c>
       <c r="H44" t="n">
-        <v>118.87</v>
+        <v>37.37</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2477,85 +2477,85 @@
         </is>
       </c>
       <c r="L44" s="3" t="n">
-        <v>44082</v>
+        <v>44337</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43964.86526620371</v>
+        <v>44435.0703125</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43964.88818287037</v>
+        <v>44435.14809027778</v>
       </c>
       <c r="E45" t="n">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Steven Miller</t>
+          <t>Jillian Lopez</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.66</v>
+        <v>1.93</v>
       </c>
       <c r="H45" t="n">
-        <v>42.16</v>
+        <v>71.73</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L45" s="3" t="n">
-        <v>43964</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44453.87834490741</v>
+        <v>44296.49450231482</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44453.89987268519</v>
+        <v>44296.51464120371</v>
       </c>
       <c r="E46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Elizabeth Scott</t>
+          <t>Margaret Walker MD</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.39</v>
+        <v>2.18</v>
       </c>
       <c r="H46" t="n">
-        <v>104.15</v>
+        <v>108.79</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2569,53 +2569,53 @@
         </is>
       </c>
       <c r="L46" s="3" t="n">
-        <v>44453</v>
+        <v>44296</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44281.97738425926</v>
+        <v>44247.74159722222</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44282.02182870371</v>
+        <v>44247.75340277778</v>
       </c>
       <c r="E47" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Larry Boyer</t>
+          <t>Karla Schmitt</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
-        <v>53.67</v>
+        <v>59.9</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L47" s="3" t="n">
-        <v>44281</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="48">
@@ -2626,31 +2626,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>44734.85704861111</v>
+        <v>44762.09410879629</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44734.9021875</v>
+        <v>44762.17396990741</v>
       </c>
       <c r="E48" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>George Jordan</t>
+          <t>David Ramirez</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.25</v>
+        <v>4.67</v>
       </c>
       <c r="H48" t="n">
-        <v>27.56</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -2661,53 +2661,53 @@
         </is>
       </c>
       <c r="L48" s="3" t="n">
-        <v>44734</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44419.83325231481</v>
+        <v>44283.33464120371</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44419.89436342593</v>
+        <v>44283.41241898148</v>
       </c>
       <c r="E49" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Grant Adams</t>
+          <t>Jacob Jones</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.66</v>
+        <v>2.64</v>
       </c>
       <c r="H49" t="n">
-        <v>111.06</v>
+        <v>23.21</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L49" s="3" t="n">
-        <v>44419</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="50">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44080.12200231481</v>
+        <v>43921.01715277778</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44080.16297453704</v>
+        <v>43921.089375</v>
       </c>
       <c r="E50" t="n">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Veronica Sharp</t>
+          <t>Dave Brown</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="H50" t="n">
-        <v>63.42</v>
+        <v>39.1</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2753,223 +2753,223 @@
         </is>
       </c>
       <c r="L50" s="3" t="n">
-        <v>44080</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>44070.44407407408</v>
+        <v>43835.53236111111</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44070.49824074074</v>
+        <v>43835.60666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kelly Love</t>
+          <t>Jeffrey Smith</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.18</v>
+        <v>4.34</v>
       </c>
       <c r="H51" t="n">
-        <v>85.33</v>
+        <v>57.28</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L51" s="3" t="n">
-        <v>44070</v>
+        <v>43835</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44661.84460648148</v>
+        <v>44872.95053240741</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44661.85641203704</v>
+        <v>44873.0192824074</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jeremy Becker</t>
+          <t>Maria Park</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.41</v>
+        <v>2.86</v>
       </c>
       <c r="H52" t="n">
-        <v>31.29</v>
+        <v>101.18</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L52" s="3" t="n">
-        <v>44661</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44213.6669675926</v>
+        <v>44104.59052083334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44213.68155092592</v>
+        <v>44104.65857638889</v>
       </c>
       <c r="E53" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Daniel Johnson</t>
+          <t>George Crawford</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.83</v>
+        <v>3.77</v>
       </c>
       <c r="H53" t="n">
-        <v>28.4</v>
+        <v>46.12</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L53" s="3" t="n">
-        <v>44213</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>44675.36546296296</v>
+        <v>45102.13033564815</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44675.39254629629</v>
+        <v>45102.20325231482</v>
       </c>
       <c r="E54" t="n">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Nancy Smith</t>
+          <t>Brad Calhoun</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.29</v>
+        <v>1.44</v>
       </c>
       <c r="H54" t="n">
-        <v>69.63</v>
+        <v>105.19</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L54" s="3" t="n">
-        <v>44675</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>44627.54002314815</v>
+        <v>43869.91291666667</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44627.58446759259</v>
+        <v>43869.93930555556</v>
       </c>
       <c r="E55" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Jeffrey Hughes</t>
+          <t>Stephen Richardson</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.49</v>
+        <v>3.31</v>
       </c>
       <c r="H55" t="n">
-        <v>86.69</v>
+        <v>109.3</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2983,39 +2983,39 @@
         </is>
       </c>
       <c r="L55" s="3" t="n">
-        <v>44627</v>
+        <v>43869</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>South Wharf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>East Melbourne</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>South Wharf</t>
-        </is>
-      </c>
       <c r="C56" s="2" t="n">
-        <v>44679.11479166667</v>
+        <v>44091.31743055556</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44679.14048611111</v>
+        <v>44091.39243055556</v>
       </c>
       <c r="E56" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>James Payne</t>
+          <t>Kelly May</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.89</v>
+        <v>0.96</v>
       </c>
       <c r="H56" t="n">
-        <v>51.17</v>
+        <v>114.05</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -3025,43 +3025,43 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L56" s="3" t="n">
-        <v>44679</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>44034.74778935185</v>
+        <v>43886.30271990741</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44034.77626157407</v>
+        <v>43886.36938657407</v>
       </c>
       <c r="E57" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Zachary Lester</t>
+          <t>Angela Smith</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.87</v>
+        <v>1.73</v>
       </c>
       <c r="H57" t="n">
-        <v>38.81</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -3071,141 +3071,141 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L57" s="3" t="n">
-        <v>44034</v>
+        <v>43886</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>44544.18023148148</v>
+        <v>44882.4175</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44544.22398148148</v>
+        <v>44882.49041666667</v>
       </c>
       <c r="E58" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Michael Bullock</t>
+          <t>Frank Spencer</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>3.91</v>
       </c>
       <c r="H58" t="n">
-        <v>37.61</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L58" s="3" t="n">
-        <v>44544</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43854.30444444445</v>
+        <v>43848.52800925926</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43854.31694444444</v>
+        <v>43848.54953703703</v>
       </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Diane Mcgee</t>
+          <t>Yesenia Delgado</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.14</v>
+        <v>3.74</v>
       </c>
       <c r="H59" t="n">
-        <v>72.56999999999999</v>
+        <v>105.67</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L59" s="3" t="n">
-        <v>43854</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43847.78137731482</v>
+        <v>44209.22989583333</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43847.82096064815</v>
+        <v>44209.24725694444</v>
       </c>
       <c r="E60" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Brandi Roberson</t>
+          <t>Kimberly Casey</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="H60" t="n">
-        <v>47.11</v>
+        <v>78.89</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3213,91 +3213,91 @@
         </is>
       </c>
       <c r="L60" s="3" t="n">
-        <v>43847</v>
+        <v>44209</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43921.58564814815</v>
+        <v>43916.36287037037</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43921.61273148148</v>
+        <v>43916.3712037037</v>
       </c>
       <c r="E61" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ashley Hernandez</t>
+          <t>Gene Bailey</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.18</v>
+        <v>1.68</v>
       </c>
       <c r="H61" t="n">
-        <v>21.75</v>
+        <v>118.3</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L61" s="3" t="n">
-        <v>43921</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45101.198125</v>
+        <v>44837.04428240741</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45101.25645833334</v>
+        <v>44837.12136574074</v>
       </c>
       <c r="E62" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jasmine Ritter</t>
+          <t>Luke Martin</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>3.27</v>
       </c>
       <c r="H62" t="n">
-        <v>48.41</v>
+        <v>27.15</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3305,13 +3305,13 @@
         </is>
       </c>
       <c r="L62" s="3" t="n">
-        <v>45101</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3320,176 +3320,176 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44168.62579861111</v>
+        <v>44528.46673611111</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168.66399305555</v>
+        <v>44528.47854166666</v>
       </c>
       <c r="E63" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jonathan Oneal</t>
+          <t>Troy Reid</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="H63" t="n">
-        <v>97.66</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L63" s="3" t="n">
-        <v>44168</v>
+        <v>44528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>44334.56318287037</v>
+        <v>45138.03954861111</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44334.64443287037</v>
+        <v>45138.11107638889</v>
       </c>
       <c r="E64" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Charles Colon</t>
+          <t>Abigail Freeman</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.64</v>
+        <v>1.15</v>
       </c>
       <c r="H64" t="n">
-        <v>89.86</v>
+        <v>41.69</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L64" s="3" t="n">
-        <v>44334</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45034.35167824074</v>
+        <v>45035.19552083333</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45034.40028935186</v>
+        <v>45035.2746875</v>
       </c>
       <c r="E65" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Patricia Rowe</t>
+          <t>Karen Perez</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.29</v>
+        <v>4.14</v>
       </c>
       <c r="H65" t="n">
-        <v>49.99</v>
+        <v>24.92</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L65" s="3" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>44373.16280092593</v>
+        <v>44452.58150462963</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44373.19405092593</v>
+        <v>44452.60997685185</v>
       </c>
       <c r="E66" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Robert Duncan</t>
+          <t>Barbara Wiggins</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.19</v>
+        <v>2.69</v>
       </c>
       <c r="H66" t="n">
-        <v>88.55</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L66" s="3" t="n">
-        <v>44373</v>
+        <v>44452</v>
       </c>
     </row>
     <row r="67">
@@ -3500,77 +3500,77 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>44972.09351851852</v>
+        <v>44490.3371875</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44972.11851851852</v>
+        <v>44490.40454861111</v>
       </c>
       <c r="E67" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Samantha Choi</t>
+          <t>Ronnie Johnson</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.96</v>
+        <v>2.42</v>
       </c>
       <c r="H67" t="n">
-        <v>114.42</v>
+        <v>20.03</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L67" s="3" t="n">
-        <v>44972</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>44239.29792824074</v>
+        <v>44653.07496527778</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44239.36390046297</v>
+        <v>44653.11454861111</v>
       </c>
       <c r="E68" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Jennifer Lee</t>
+          <t>Stacy Turner</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
-        <v>69.05</v>
+        <v>58.89</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
@@ -3581,39 +3581,39 @@
         </is>
       </c>
       <c r="L68" s="3" t="n">
-        <v>44239</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>44032.02700231481</v>
+        <v>43913.60700231481</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44032.10894675926</v>
+        <v>43913.61672453704</v>
       </c>
       <c r="E69" t="n">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Daniel Sims</t>
+          <t>James Lopez</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.99</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
-        <v>107.88</v>
+        <v>24.12</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3623,187 +3623,187 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L69" s="3" t="n">
-        <v>44032</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>44032.26701388889</v>
+        <v>44369.12300925926</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44032.28090277778</v>
+        <v>44369.18134259259</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Christopher Hamilton</t>
+          <t>Brent Harrington</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="H70" t="n">
-        <v>26.12</v>
+        <v>40.58</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L70" s="3" t="n">
-        <v>44032</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>44653.64444444444</v>
+        <v>45040.07849537037</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44653.65625</v>
+        <v>45040.14377314815</v>
       </c>
       <c r="E71" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Andrew Richards DDS</t>
+          <t>Bryan Baker</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.05</v>
+        <v>3.09</v>
       </c>
       <c r="H71" t="n">
-        <v>53.28</v>
+        <v>90.12</v>
       </c>
       <c r="I71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L71" s="3" t="n">
-        <v>44653</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43919.60149305555</v>
+        <v>44908.74181712963</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>43919.68274305556</v>
+        <v>44908.81473379629</v>
       </c>
       <c r="E72" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>William Erickson</t>
+          <t>Benjamin Thomas</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="H72" t="n">
-        <v>52.94</v>
+        <v>52.23</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L72" s="3" t="n">
-        <v>43919</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43858.91888888889</v>
+        <v>44628.40347222222</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>43858.95916666667</v>
+        <v>44628.44513888889</v>
       </c>
       <c r="E73" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Danielle Garcia</t>
+          <t>Mrs. Abigail Hansen</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.85</v>
+        <v>1.84</v>
       </c>
       <c r="H73" t="n">
-        <v>68.91</v>
+        <v>22.34</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3811,91 +3811,91 @@
         </is>
       </c>
       <c r="L73" s="3" t="n">
-        <v>43858</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44161.91966435185</v>
+        <v>45132.83225694444</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44161.92730324074</v>
+        <v>45132.86003472222</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Karen Stephens</t>
+          <t>Michael Scott</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>1.92</v>
       </c>
       <c r="H74" t="n">
-        <v>46.64</v>
+        <v>77.75</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L74" s="3" t="n">
-        <v>44161</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43871.6533912037</v>
+        <v>44308.29726851852</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>43871.6846412037</v>
+        <v>44308.34587962963</v>
       </c>
       <c r="E75" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Jaime Stevens</t>
+          <t>Jessica Garcia</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="H75" t="n">
-        <v>97.15000000000001</v>
+        <v>47.15</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="L75" s="3" t="n">
-        <v>43871</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3918,24 +3918,24 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44947.89407407407</v>
+        <v>43938.8516087963</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44947.93226851852</v>
+        <v>43938.87174768518</v>
       </c>
       <c r="E76" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nathan Miller</t>
+          <t>Mark Perry</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.98</v>
+        <v>3.56</v>
       </c>
       <c r="H76" t="n">
-        <v>76.31999999999999</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3945,89 +3945,89 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L76" s="3" t="n">
-        <v>44947</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44283.47136574074</v>
+        <v>45107.11498842593</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44283.48178240741</v>
+        <v>45107.15873842593</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>David Valdez</t>
+          <t>Amanda Brown</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.36</v>
+        <v>3.24</v>
       </c>
       <c r="H77" t="n">
-        <v>61.72</v>
+        <v>52.14</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="J77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L77" s="3" t="n">
-        <v>44283</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44440.15246527778</v>
+        <v>44360.47554398148</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44440.2059375</v>
+        <v>44360.52346064815</v>
       </c>
       <c r="E78" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Donald Bates</t>
+          <t>Erika Smith</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.29</v>
+        <v>1.34</v>
       </c>
       <c r="H78" t="n">
-        <v>100.32</v>
+        <v>93.28</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4037,43 +4037,43 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L78" s="3" t="n">
-        <v>44440</v>
+        <v>44360</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>44487.05650462963</v>
+        <v>43841.62859953703</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44487.07178240741</v>
+        <v>43841.7077662037</v>
       </c>
       <c r="E79" t="n">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gerald Barnes</t>
+          <t>Nancy Delacruz</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.61</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
-        <v>114.89</v>
+        <v>99.11</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -4083,43 +4083,43 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L79" s="3" t="n">
-        <v>44487</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43947.04771990741</v>
+        <v>44289.94868055556</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>43947.07966435186</v>
+        <v>44290.030625</v>
       </c>
       <c r="E80" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nicole Blair</t>
+          <t>Jacob Jensen</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.45</v>
+        <v>3.44</v>
       </c>
       <c r="H80" t="n">
-        <v>83.15000000000001</v>
+        <v>113.84</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -4129,43 +4129,43 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L80" s="3" t="n">
-        <v>43947</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43950.44957175926</v>
+        <v>43916.89364583333</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43950.49471064815</v>
+        <v>43916.91239583334</v>
       </c>
       <c r="E81" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Aaron Smith</t>
+          <t>John Blair</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.35</v>
+        <v>4.05</v>
       </c>
       <c r="H81" t="n">
-        <v>77.58</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4179,59 +4179,59 @@
         </is>
       </c>
       <c r="L81" s="3" t="n">
-        <v>43950</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44167.69480324074</v>
+        <v>44978.43920138889</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44167.72952546296</v>
+        <v>44978.48434027778</v>
       </c>
       <c r="E82" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tracy Decker</t>
+          <t>Cheryl Mitchell</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.56</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
-        <v>97.65000000000001</v>
+        <v>112.07</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L82" s="3" t="n">
-        <v>44167</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4240,38 +4240,38 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45064.60975694445</v>
+        <v>44176.75675925926</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45064.65350694444</v>
+        <v>44176.78314814815</v>
       </c>
       <c r="E83" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Morgan Davis</t>
+          <t>Susan Silva</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="H83" t="n">
-        <v>117.47</v>
+        <v>110.62</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="J83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L83" s="3" t="n">
-        <v>45064</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="84">
@@ -4282,120 +4282,120 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44334.15224537037</v>
+        <v>44577.40775462963</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44334.22168981482</v>
+        <v>44577.43344907407</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Laura Roberts</t>
+          <t>Maria Watson</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.89</v>
+        <v>2.84</v>
       </c>
       <c r="H84" t="n">
-        <v>25.2</v>
+        <v>44.75</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L84" s="3" t="n">
-        <v>44334</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44238.14678240741</v>
+        <v>44138.18574074074</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44238.19053240741</v>
+        <v>44138.19962962963</v>
       </c>
       <c r="E85" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Miss Patricia Weaver</t>
+          <t>Samantha Rice</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.31</v>
+        <v>2.96</v>
       </c>
       <c r="H85" t="n">
-        <v>58.41</v>
+        <v>108.17</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L85" s="3" t="n">
-        <v>44238</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43930.84535879629</v>
+        <v>44064.83811342593</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>43930.89327546296</v>
+        <v>44064.89019675926</v>
       </c>
       <c r="E86" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Angela Ryan</t>
+          <t>Gabriel Tran</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.89</v>
+        <v>3.84</v>
       </c>
       <c r="H86" t="n">
-        <v>55.88</v>
+        <v>59.09</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4405,43 +4405,43 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L86" s="3" t="n">
-        <v>43930</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44478.00877314815</v>
+        <v>44131.62598379629</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44478.01224537037</v>
+        <v>44131.65792824074</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Shawn Campbell</t>
+          <t>Anthony Gould</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.87</v>
+        <v>2.59</v>
       </c>
       <c r="H87" t="n">
-        <v>55.24</v>
+        <v>28.44</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4455,91 +4455,91 @@
         </is>
       </c>
       <c r="L87" s="3" t="n">
-        <v>44478</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44430.58619212963</v>
+        <v>44016.4812037037</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44430.63966435185</v>
+        <v>44016.49300925926</v>
       </c>
       <c r="E88" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Jose Joseph</t>
+          <t>Christopher Avery</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.68</v>
+        <v>2.51</v>
       </c>
       <c r="H88" t="n">
-        <v>20.66</v>
+        <v>59.17</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L88" s="3" t="n">
-        <v>44430</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43929.07380787037</v>
+        <v>45061.82974537037</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>43929.1258912037</v>
+        <v>45061.87141203704</v>
       </c>
       <c r="E89" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dr. Micheal Atkinson</t>
+          <t>Joseph Thomas</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.41</v>
+        <v>1.84</v>
       </c>
       <c r="H89" t="n">
-        <v>78.05</v>
+        <v>75.78</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="J89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4547,42 +4547,42 @@
         </is>
       </c>
       <c r="L89" s="3" t="n">
-        <v>43929</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44784.49306712963</v>
+        <v>44665.80207175926</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44784.56806712963</v>
+        <v>44665.87498842592</v>
       </c>
       <c r="E90" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Robert Thomas PhD</t>
+          <t>Angel Young Jr.</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.87</v>
+        <v>3.81</v>
       </c>
       <c r="H90" t="n">
-        <v>20.73</v>
+        <v>75.87</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -4593,53 +4593,53 @@
         </is>
       </c>
       <c r="L90" s="3" t="n">
-        <v>44784</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44955.87993055556</v>
+        <v>45046.82703703704</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44955.92993055555</v>
+        <v>45046.90203703703</v>
       </c>
       <c r="E91" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>John Reyes</t>
+          <t>Brian Jackson</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.46</v>
+        <v>1.48</v>
       </c>
       <c r="H91" t="n">
-        <v>59.17</v>
+        <v>22.6</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L91" s="3" t="n">
-        <v>44955</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="92">
@@ -4650,31 +4650,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44740.17115740741</v>
+        <v>44399.87372685185</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44740.25101851852</v>
+        <v>44399.88761574074</v>
       </c>
       <c r="E92" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>John Davis</t>
+          <t>Tiffany Johnson</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.08</v>
+        <v>4.04</v>
       </c>
       <c r="H92" t="n">
-        <v>55.3</v>
+        <v>116.36</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="L92" s="3" t="n">
-        <v>44740</v>
+        <v>44399</v>
       </c>
     </row>
     <row r="93">
@@ -4696,120 +4696,120 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44446.39797453704</v>
+        <v>44336.03887731482</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44446.47644675926</v>
+        <v>44336.11179398148</v>
       </c>
       <c r="E93" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jack Hall</t>
+          <t>Michelle Tanner</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>3.92</v>
       </c>
       <c r="H93" t="n">
-        <v>39.77</v>
+        <v>70.02</v>
       </c>
       <c r="I93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L93" s="3" t="n">
-        <v>44446</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>South Wharf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>Port Melbourne</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Kensington</t>
-        </is>
-      </c>
       <c r="C94" s="2" t="n">
-        <v>43950.74177083333</v>
+        <v>44101.92497685185</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43950.78204861111</v>
+        <v>44101.96803240741</v>
       </c>
       <c r="E94" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Emily Hamilton</t>
+          <t>Michael Stevenson</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="H94" t="n">
-        <v>60.27</v>
+        <v>90.87</v>
       </c>
       <c r="I94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L94" s="3" t="n">
-        <v>43950</v>
+        <v>44101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>44098.63317129629</v>
+        <v>44410.29072916666</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44098.68178240741</v>
+        <v>44410.31225694445</v>
       </c>
       <c r="E95" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mrs. Rebecca Bender</t>
+          <t>Edwin Parks</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.71</v>
+        <v>2.84</v>
       </c>
       <c r="H95" t="n">
-        <v>30.22</v>
+        <v>114.87</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -4823,39 +4823,39 @@
         </is>
       </c>
       <c r="L95" s="3" t="n">
-        <v>44098</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>44374.88232638889</v>
+        <v>44986.37599537037</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44374.90663194445</v>
+        <v>44986.38641203703</v>
       </c>
       <c r="E96" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Christopher Price</t>
+          <t>Chelsey Gray</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>2.53</v>
       </c>
       <c r="H96" t="n">
-        <v>78.17</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -4869,45 +4869,45 @@
         </is>
       </c>
       <c r="L96" s="3" t="n">
-        <v>44374</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>44052.94693287037</v>
+        <v>44393.40658564815</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44052.98512731482</v>
+        <v>44393.48991898148</v>
       </c>
       <c r="E97" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Whitney Ramirez</t>
+          <t>Ronald Miller</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.72</v>
+        <v>3.38</v>
       </c>
       <c r="H97" t="n">
-        <v>31.78</v>
+        <v>96.12</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="J97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4915,59 +4915,59 @@
         </is>
       </c>
       <c r="L97" s="3" t="n">
-        <v>44052</v>
+        <v>44393</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>44342.17076388889</v>
+        <v>43931.5403125</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44342.21729166667</v>
+        <v>43931.59934027777</v>
       </c>
       <c r="E98" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Jeremiah Shaffer</t>
+          <t>Patrick Pope</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>3.03</v>
       </c>
       <c r="H98" t="n">
-        <v>114.15</v>
+        <v>28.02</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L98" s="3" t="n">
-        <v>44342</v>
+        <v>43931</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4976,24 +4976,24 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>44701.62940972222</v>
+        <v>43958.21944444445</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44701.66065972222</v>
+        <v>43958.29930555556</v>
       </c>
       <c r="E99" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Amy Dodson</t>
+          <t>Jacob Barber</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.09</v>
+        <v>3.34</v>
       </c>
       <c r="H99" t="n">
-        <v>36.13</v>
+        <v>68.13</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -5003,227 +5003,227 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L99" s="3" t="n">
-        <v>44701</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>Port Melbourne</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Docklands</t>
-        </is>
-      </c>
       <c r="C100" s="2" t="n">
-        <v>44953.80890046297</v>
+        <v>45092.82517361111</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44953.87834490741</v>
+        <v>45092.85642361111</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kelly Young</t>
+          <t>Jonathan Castaneda</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="H100" t="n">
-        <v>56.81</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="I100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L100" s="3" t="n">
-        <v>44953</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44164.97364583334</v>
+        <v>44479.67579861111</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44165.02572916666</v>
+        <v>44479.7334375</v>
       </c>
       <c r="E101" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Marcus Sexton</t>
+          <t>Martha Butler</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.42</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
-        <v>33.87</v>
+        <v>91.34</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
       </c>
       <c r="J101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L101" s="3" t="n">
-        <v>44164</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44627.67215277778</v>
+        <v>44136.91774305556</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44627.73465277778</v>
+        <v>44136.97607638889</v>
       </c>
       <c r="E102" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mitchell Morales</t>
+          <t>Sarah Stewart</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.07</v>
+        <v>2.57</v>
       </c>
       <c r="H102" t="n">
-        <v>88.15000000000001</v>
+        <v>93.69</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
       </c>
       <c r="J102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L102" s="3" t="n">
-        <v>44627</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45057.20048611111</v>
+        <v>44727.46910879629</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45057.20743055556</v>
+        <v>44727.48994212963</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Donna Phillips</t>
+          <t>Edward Henry</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.13</v>
+        <v>1.49</v>
       </c>
       <c r="H103" t="n">
-        <v>91.45999999999999</v>
+        <v>22.13</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="J103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L103" s="3" t="n">
-        <v>45057</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>44069.26712962963</v>
+        <v>44782.72219907407</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44069.29143518519</v>
+        <v>44782.76386574074</v>
       </c>
       <c r="E104" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Diane Smith</t>
+          <t>Willie Fleming</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="H104" t="n">
-        <v>26.97</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -5237,85 +5237,85 @@
         </is>
       </c>
       <c r="L104" s="3" t="n">
-        <v>44069</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45040.56623842593</v>
+        <v>44595.80459490741</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45040.62457175926</v>
+        <v>44595.82403935185</v>
       </c>
       <c r="E105" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kathryn Graham</t>
+          <t>Matthew Stephenson</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="H105" t="n">
-        <v>89.03</v>
+        <v>27.68</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="J105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L105" s="3" t="n">
-        <v>45040</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45126.1971412037</v>
+        <v>44224.46434027778</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45126.22075231482</v>
+        <v>44224.5178125</v>
       </c>
       <c r="E106" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Aaron Brown</t>
+          <t>Gina King</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="H106" t="n">
-        <v>76.67</v>
+        <v>53.28</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L106" s="3" t="n">
-        <v>45126</v>
+        <v>44224</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5344,116 +5344,116 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43856.35976851852</v>
+        <v>44394.38304398148</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>43856.37087962963</v>
+        <v>44394.41290509259</v>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mason Smith</t>
+          <t>Cindy Lawson</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.33</v>
+        <v>1.41</v>
       </c>
       <c r="H107" t="n">
-        <v>66.26000000000001</v>
+        <v>36.79</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L107" s="3" t="n">
-        <v>43856</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>44788.23840277778</v>
+        <v>45093.84512731482</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44788.25229166666</v>
+        <v>45093.89165509259</v>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>David Bailey</t>
+          <t>Daniel Lyons</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="H108" t="n">
-        <v>104.86</v>
+        <v>119.18</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="J108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L108" s="3" t="n">
-        <v>44788</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>44599.36695601852</v>
+        <v>44107.65574074074</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44599.40723379629</v>
+        <v>44107.72518518518</v>
       </c>
       <c r="E109" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Brittany Matthews</t>
+          <t>Diana Quinn</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.6</v>
+        <v>1.63</v>
       </c>
       <c r="H109" t="n">
-        <v>90.93000000000001</v>
+        <v>53.06</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5463,49 +5463,49 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L109" s="3" t="n">
-        <v>44599</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45101.18420138889</v>
+        <v>44917.79694444445</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45101.21822916667</v>
+        <v>44917.83166666667</v>
       </c>
       <c r="E110" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Joy Nguyen</t>
+          <t>David Hancock</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="H110" t="n">
-        <v>61.82</v>
+        <v>21.16</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -5513,53 +5513,53 @@
         </is>
       </c>
       <c r="L110" s="3" t="n">
-        <v>45101</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>44126.07388888889</v>
+        <v>44907.35233796296</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44126.07944444445</v>
+        <v>44907.35719907407</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Emma Larson</t>
+          <t>Kayla Petersen</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.67</v>
+        <v>3.72</v>
       </c>
       <c r="H111" t="n">
-        <v>99.88</v>
+        <v>49.75</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
       </c>
       <c r="J111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L111" s="3" t="n">
-        <v>44126</v>
+        <v>44907</v>
       </c>
     </row>
   </sheetData>

--- a/Data/indiumSamp.xlsx
+++ b/Data/indiumSamp.xlsx
@@ -505,33 +505,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43892.35721064815</v>
+        <v>44096.22258101852</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43892.41623842593</v>
+        <v>44096.25869212963</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Keith Castaneda</t>
+          <t>John Rivas</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.16</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
-        <v>62.35</v>
+        <v>106.43</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -545,39 +545,39 @@
         </is>
       </c>
       <c r="L2" s="3" t="n">
-        <v>43892</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45001.56465277778</v>
+        <v>44440.92133101852</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45001.57715277778</v>
+        <v>44440.95674768519</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ernest Mueller</t>
+          <t>Kimberly Holmes</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>70.15000000000001</v>
+        <v>59.39</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -591,59 +591,59 @@
         </is>
       </c>
       <c r="L3" s="3" t="n">
-        <v>45001</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43907.36377314815</v>
+        <v>44334.29868055556</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43907.37418981481</v>
+        <v>44334.35631944444</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ashley Lin</t>
+          <t>Joy Jackson</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>3.96</v>
       </c>
       <c r="H4" t="n">
-        <v>93.20999999999999</v>
+        <v>22.77</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L4" s="3" t="n">
-        <v>43907</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -652,24 +652,24 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43860.31653935185</v>
+        <v>44338.05611111111</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43860.39292824074</v>
+        <v>44338.11513888889</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Katherine Reed</t>
+          <t>Jay Flores</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.82</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>73.53</v>
+        <v>103.89</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -679,135 +679,135 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L5" s="3" t="n">
-        <v>43860</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44437.98259259259</v>
+        <v>44155.40401620371</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44438.05064814815</v>
+        <v>44155.45332175926</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Deborah Winters</t>
+          <t>Jennifer Arellano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.71</v>
+        <v>2.91</v>
       </c>
       <c r="H6" t="n">
-        <v>44.86</v>
+        <v>25.94</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L6" s="3" t="n">
-        <v>44437</v>
+        <v>44155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44063.9909837963</v>
+        <v>44139.71722222222</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44064.03542824074</v>
+        <v>44139.73666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Eric Rivera</t>
+          <t>Kristen Golden</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>98.52</v>
+        <v>113.52</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L7" s="3" t="n">
-        <v>44063</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44607.58527777778</v>
+        <v>44894.90879629629</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44607.63458333333</v>
+        <v>44894.9900462963</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Joseph Jones</t>
+          <t>Brandon Brown</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>3.92</v>
       </c>
       <c r="H8" t="n">
-        <v>51.49</v>
+        <v>27.97</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -817,109 +817,109 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L8" s="3" t="n">
-        <v>44607</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>West Melbourne</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Docklands</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Southbank</t>
-        </is>
-      </c>
       <c r="C9" s="2" t="n">
-        <v>44055.61978009259</v>
+        <v>44208.75420138889</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44055.6371412037</v>
+        <v>44208.79795138889</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brian Lewis</t>
+          <t>Alexis Gonzalez</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.27</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>25.03</v>
+        <v>107.17</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L9" s="3" t="n">
-        <v>44055</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44631.7158449074</v>
+        <v>44447.82371527778</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44631.76515046296</v>
+        <v>44447.85357638889</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jennifer Harvey</t>
+          <t>Ray Floyd</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>21.03</v>
+        <v>118.27</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L10" s="3" t="n">
-        <v>44631</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -928,24 +928,24 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44249.48074074074</v>
+        <v>44287.71217592592</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44249.51962962963</v>
+        <v>44287.72467592593</v>
       </c>
       <c r="E11" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Joshua Martin</t>
+          <t>Angela Jones</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>20.87</v>
+        <v>44.27</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -955,49 +955,49 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L11" s="3" t="n">
-        <v>44249</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43993.37068287037</v>
+        <v>44431.64704861111</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43993.41929398148</v>
+        <v>44431.65746527778</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Joshua Mann</t>
+          <t>Brenda Stanley</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.16</v>
+        <v>2.83</v>
       </c>
       <c r="H12" t="n">
-        <v>34.74</v>
+        <v>61.78</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1005,39 +1005,39 @@
         </is>
       </c>
       <c r="L12" s="3" t="n">
-        <v>43993</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44415.88657407407</v>
+        <v>43937.86954861111</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44415.96990740741</v>
+        <v>43937.88135416667</v>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Karen Conley DDS</t>
+          <t>Jamie Adams</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.73</v>
+        <v>4.72</v>
       </c>
       <c r="H13" t="n">
-        <v>33.32</v>
+        <v>29.74</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1051,39 +1051,39 @@
         </is>
       </c>
       <c r="L13" s="3" t="n">
-        <v>44415</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44679.84372685185</v>
+        <v>44072.16627314815</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44679.86456018518</v>
+        <v>44072.19613425926</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ariel Hudson</t>
+          <t>Madison Gonzalez</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.09</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>64.7</v>
+        <v>112.22</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1097,39 +1097,39 @@
         </is>
       </c>
       <c r="L14" s="3" t="n">
-        <v>44679</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44384.43054398148</v>
+        <v>44141.77199074074</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44384.49929398148</v>
+        <v>44141.82893518519</v>
       </c>
       <c r="E15" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Loretta Brewer</t>
+          <t>Tracy Parker</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.85</v>
+        <v>1.13</v>
       </c>
       <c r="H15" t="n">
-        <v>44.81</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1139,141 +1139,141 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L15" s="3" t="n">
-        <v>44384</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45129.97703703704</v>
+        <v>44272.12657407407</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45130.03745370371</v>
+        <v>44272.15921296296</v>
       </c>
       <c r="E16" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dr. John Mcguire</t>
+          <t>Rebecca Ramos</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.39</v>
+        <v>3.82</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4</v>
+        <v>62.26</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L16" s="3" t="n">
-        <v>45129</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44910.44322916667</v>
+        <v>44079.15802083333</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44910.51475694445</v>
+        <v>44079.22399305556</v>
       </c>
       <c r="E17" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Emily Morris</t>
+          <t>Latoya Bailey</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.25</v>
+        <v>2.58</v>
       </c>
       <c r="H17" t="n">
-        <v>61.64</v>
+        <v>48.47</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L17" s="3" t="n">
-        <v>44910</v>
+        <v>44079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43948.13319444445</v>
+        <v>44130.60087962963</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43948.17138888889</v>
+        <v>44130.64462962963</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Joel Murray</t>
+          <t>Kristen Freeman</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="H18" t="n">
-        <v>51.85</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1281,45 +1281,45 @@
         </is>
       </c>
       <c r="L18" s="3" t="n">
-        <v>43948</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43999.82243055556</v>
+        <v>44516.27744212963</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43999.86131944445</v>
+        <v>44516.3316087963</v>
       </c>
       <c r="E19" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Toni Long</t>
+          <t>Nicholas Walker</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>54.85</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1327,91 +1327,91 @@
         </is>
       </c>
       <c r="L19" s="3" t="n">
-        <v>43999</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44793.61556712963</v>
+        <v>44933.97679398148</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44793.63987268518</v>
+        <v>44933.99068287037</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Anthony White</t>
+          <t>Veronica Taylor</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>0.95</v>
       </c>
       <c r="H20" t="n">
-        <v>76.75</v>
+        <v>21.47</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L20" s="3" t="n">
-        <v>44793</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>West Melbourne</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Port Melbourne</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>South Wharf</t>
-        </is>
-      </c>
       <c r="C21" s="2" t="n">
-        <v>44746.03030092592</v>
+        <v>44968.00909722222</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44746.05043981481</v>
+        <v>44968.04520833334</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Amanda Gonzalez</t>
+          <t>Barry Figueroa</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.23</v>
+        <v>2.95</v>
       </c>
       <c r="H21" t="n">
-        <v>35.22</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1419,45 +1419,45 @@
         </is>
       </c>
       <c r="L21" s="3" t="n">
-        <v>44746</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43925.39738425926</v>
+        <v>45086.35493055556</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43925.42168981482</v>
+        <v>45086.40423611111</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Michael Williams</t>
+          <t>Amanda Parsons</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.65</v>
+        <v>3.98</v>
       </c>
       <c r="H22" t="n">
-        <v>42.81</v>
+        <v>106.36</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1465,85 +1465,85 @@
         </is>
       </c>
       <c r="L22" s="3" t="n">
-        <v>43925</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44136.65083333333</v>
+        <v>44920.58548611111</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44136.69458333333</v>
+        <v>44920.605625</v>
       </c>
       <c r="E23" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jessica Jackson</t>
+          <t>Sandra Baker</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
-        <v>71.93000000000001</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L23" s="3" t="n">
-        <v>44136</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44782.80015046296</v>
+        <v>44124.4246875</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44782.80501157408</v>
+        <v>44124.48024305556</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tammy Wright</t>
+          <t>Robert Douglas</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.26</v>
+        <v>3.17</v>
       </c>
       <c r="H24" t="n">
-        <v>75.11</v>
+        <v>22.38</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1553,43 +1553,43 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L24" s="3" t="n">
-        <v>44782</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44674.54984953703</v>
+        <v>43843.07248842593</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44674.60609953704</v>
+        <v>43843.12873842593</v>
       </c>
       <c r="E25" t="n">
         <v>81</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Luis Bush</t>
+          <t>Darrell Hogan</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>43.66</v>
+        <v>94.14</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1599,43 +1599,43 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L25" s="3" t="n">
-        <v>44674</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Kensington</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>North Melbourne</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>West Melbourne</t>
-        </is>
-      </c>
       <c r="C26" s="2" t="n">
-        <v>45094.60063657408</v>
+        <v>44538.30898148148</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45094.62563657408</v>
+        <v>44538.34648148148</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Thomas Dyer</t>
+          <t>Brittany Schmidt</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="H26" t="n">
-        <v>47.57</v>
+        <v>80</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1645,49 +1645,49 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L26" s="3" t="n">
-        <v>45094</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44247.33413194444</v>
+        <v>44865.78126157408</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44247.39107638889</v>
+        <v>44865.81806712963</v>
       </c>
       <c r="E27" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rebecca Alvarez</t>
+          <t>Kendra Crosby</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.59</v>
+        <v>3.21</v>
       </c>
       <c r="H27" t="n">
-        <v>38.16</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1695,39 +1695,39 @@
         </is>
       </c>
       <c r="L27" s="3" t="n">
-        <v>44247</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44614.46395833333</v>
+        <v>44576.51010416666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44614.48340277778</v>
+        <v>44576.54065972222</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Joshua Arnold</t>
+          <t>Kathy Hudson</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.31</v>
+        <v>1.22</v>
       </c>
       <c r="H28" t="n">
-        <v>72.90000000000001</v>
+        <v>40.64</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L28" s="3" t="n">
-        <v>44614</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1756,24 +1756,24 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43945.60788194444</v>
+        <v>44656.1446412037</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43945.63149305555</v>
+        <v>44656.22589120371</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Andrew Durham</t>
+          <t>Lisa Skinner</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>28.13</v>
+        <v>119.92</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1787,42 +1787,42 @@
         </is>
       </c>
       <c r="L29" s="3" t="n">
-        <v>43945</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Parkville</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="C30" s="2" t="n">
-        <v>44026.60813657408</v>
+        <v>43865.41106481481</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44026.64633101852</v>
+        <v>43865.46453703703</v>
       </c>
       <c r="E30" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tara Wilcox</t>
+          <t>Ruben Hernandez</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>3.03</v>
       </c>
       <c r="H30" t="n">
-        <v>103.12</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1833,39 +1833,39 @@
         </is>
       </c>
       <c r="L30" s="3" t="n">
-        <v>44026</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44737.27902777777</v>
+        <v>44110.94248842593</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44737.32972222222</v>
+        <v>44110.96887731482</v>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Shelby Salas</t>
+          <t>Sherri Johnson</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.58</v>
+        <v>3.17</v>
       </c>
       <c r="H31" t="n">
-        <v>119.55</v>
+        <v>63.11</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1879,39 +1879,39 @@
         </is>
       </c>
       <c r="L31" s="3" t="n">
-        <v>44737</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45140.46486111111</v>
+        <v>44776.793125</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45140.50027777778</v>
+        <v>44776.87090277778</v>
       </c>
       <c r="E32" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Jeanne Welch</t>
+          <t>Jorge Jimenez DVM</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.57</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>28.57</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1921,43 +1921,43 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L32" s="3" t="n">
-        <v>45140</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45067.32740740741</v>
+        <v>44990.5025</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45067.34268518518</v>
+        <v>44990.57055555555</v>
       </c>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pamela Price</t>
+          <t>Sarah Scott</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
-        <v>51.86</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1971,42 +1971,42 @@
         </is>
       </c>
       <c r="L33" s="3" t="n">
-        <v>45067</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44168.15944444444</v>
+        <v>44371.02836805556</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44168.18861111111</v>
+        <v>44371.05892361111</v>
       </c>
       <c r="E34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Robert Fields</t>
+          <t>James Li</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.77</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>87.06999999999999</v>
+        <v>93.78</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -2017,53 +2017,53 @@
         </is>
       </c>
       <c r="L34" s="3" t="n">
-        <v>44168</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44656.96934027778</v>
+        <v>44561.06128472222</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44657.03253472222</v>
+        <v>44561.12586805555</v>
       </c>
       <c r="E35" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stephen Patterson DVM</t>
+          <t>Brian Newman</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.23</v>
+        <v>2.03</v>
       </c>
       <c r="H35" t="n">
-        <v>116.54</v>
+        <v>81.56</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L35" s="3" t="n">
-        <v>44656</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="36">
@@ -2074,28 +2074,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43972.26553240741</v>
+        <v>45048.76611111111</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43972.2856712963</v>
+        <v>45048.82930555556</v>
       </c>
       <c r="E36" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jonathan Monroe</t>
+          <t>Courtney Butler</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.33</v>
+        <v>3.77</v>
       </c>
       <c r="H36" t="n">
-        <v>28.35</v>
+        <v>27.2</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2105,43 +2105,43 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L36" s="3" t="n">
-        <v>43972</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Parkville</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Kensington</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Docklands</t>
-        </is>
-      </c>
       <c r="C37" s="2" t="n">
-        <v>44063.9916087963</v>
+        <v>44126.04444444444</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44064.0666087963</v>
+        <v>44126.09722222222</v>
       </c>
       <c r="E37" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lawrence Cisneros</t>
+          <t>Stephanie Williams</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.12</v>
+        <v>1.27</v>
       </c>
       <c r="H37" t="n">
-        <v>79.92</v>
+        <v>117.86</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2151,184 +2151,184 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L37" s="3" t="n">
-        <v>44063</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43847.19549768518</v>
+        <v>44980.61244212963</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43847.24341435185</v>
+        <v>44980.64855324074</v>
       </c>
       <c r="E38" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Edward Leach</t>
+          <t>Sharon Perez</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="n">
-        <v>56.47</v>
+        <v>93.59</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L38" s="3" t="n">
-        <v>43847</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44203.88018518518</v>
+        <v>44129.99927083333</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44203.93643518518</v>
+        <v>44130.00482638889</v>
       </c>
       <c r="E39" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shannon Houston</t>
+          <t>Tiffany Ellis</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.01</v>
+        <v>3.69</v>
       </c>
       <c r="H39" t="n">
-        <v>91.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L39" s="3" t="n">
-        <v>44203</v>
+        <v>44129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44451.38689814815</v>
+        <v>43844.06092592593</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44451.45842592593</v>
+        <v>43844.08523148148</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Emily Logan</t>
+          <t>Beth Santiago</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.71</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
-        <v>86.7</v>
+        <v>28.46</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L40" s="3" t="n">
-        <v>44451</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44958.95434027778</v>
+        <v>44461.76052083333</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44959.0328125</v>
+        <v>44461.84038194444</v>
       </c>
       <c r="E41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Michelle Gonzalez</t>
+          <t>Shannon Sharp</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="H41" t="n">
-        <v>50.53</v>
+        <v>100.39</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -2339,45 +2339,45 @@
         </is>
       </c>
       <c r="L41" s="3" t="n">
-        <v>44958</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43863.53063657408</v>
+        <v>45033.05936342593</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43863.59452546296</v>
+        <v>45033.09408564815</v>
       </c>
       <c r="E42" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Alicia Martin</t>
+          <t>Kim Barton</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>3.65</v>
       </c>
       <c r="H42" t="n">
-        <v>28.91</v>
+        <v>109.29</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2385,85 +2385,85 @@
         </is>
       </c>
       <c r="L42" s="3" t="n">
-        <v>43863</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44765.00737268518</v>
+        <v>44627.45775462963</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44765.05806712963</v>
+        <v>44627.51261574074</v>
       </c>
       <c r="E43" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stacy Martinez</t>
+          <t>Jack Livingston</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="H43" t="n">
-        <v>84.41</v>
+        <v>39.87</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L43" s="3" t="n">
-        <v>44765</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>44337.75116898148</v>
+        <v>44394.32986111111</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44337.82616898148</v>
+        <v>44394.40416666667</v>
       </c>
       <c r="E44" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Jade Martinez</t>
+          <t>Erika Phillips</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.66</v>
+        <v>2.54</v>
       </c>
       <c r="H44" t="n">
-        <v>37.37</v>
+        <v>115.31</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2473,138 +2473,138 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L44" s="3" t="n">
-        <v>44337</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>West Melbourne</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>East Melbourne</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Carlton</t>
-        </is>
-      </c>
       <c r="C45" s="2" t="n">
-        <v>44435.0703125</v>
+        <v>45084.67037037037</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435.14809027778</v>
+        <v>45084.72037037037</v>
       </c>
       <c r="E45" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Jillian Lopez</t>
+          <t>Jason Hunter</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="H45" t="n">
-        <v>71.73</v>
+        <v>50.05</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L45" s="3" t="n">
-        <v>44435</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44296.49450231482</v>
+        <v>44159.38002314815</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44296.51464120371</v>
+        <v>44159.4480787037</v>
       </c>
       <c r="E46" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Margaret Walker MD</t>
+          <t>Christian Johnson</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.18</v>
+        <v>4.74</v>
       </c>
       <c r="H46" t="n">
-        <v>108.79</v>
+        <v>52.53</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L46" s="3" t="n">
-        <v>44296</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44247.74159722222</v>
+        <v>43860.05989583334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44247.75340277778</v>
+        <v>43860.14253472222</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Karla Schmitt</t>
+          <t>Daniel Russell</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H47" t="n">
-        <v>59.9</v>
+        <v>24.82</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -2615,59 +2615,59 @@
         </is>
       </c>
       <c r="L47" s="3" t="n">
-        <v>44247</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>44762.09410879629</v>
+        <v>44914.32862268519</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44762.17396990741</v>
+        <v>44914.40987268519</v>
       </c>
       <c r="E48" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>David Ramirez</t>
+          <t>Victoria Valencia</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.67</v>
+        <v>1.48</v>
       </c>
       <c r="H48" t="n">
-        <v>81.29000000000001</v>
+        <v>109.88</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L48" s="3" t="n">
-        <v>44762</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2676,70 +2676,70 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44283.33464120371</v>
+        <v>44099.75659722222</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44283.41241898148</v>
+        <v>44099.79548611111</v>
       </c>
       <c r="E49" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jacob Jones</t>
+          <t>Jennifer Murray</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.64</v>
+        <v>3.21</v>
       </c>
       <c r="H49" t="n">
-        <v>23.21</v>
+        <v>25.17</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L49" s="3" t="n">
-        <v>44283</v>
+        <v>44099</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43921.01715277778</v>
+        <v>44229.10023148148</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43921.089375</v>
+        <v>44229.10787037037</v>
       </c>
       <c r="E50" t="n">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dave Brown</t>
+          <t>Sara Garcia</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.01</v>
+        <v>2.69</v>
       </c>
       <c r="H50" t="n">
-        <v>39.1</v>
+        <v>61.76</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2749,181 +2749,181 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L50" s="3" t="n">
-        <v>43921</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43835.53236111111</v>
+        <v>44694.64805555555</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43835.60666666667</v>
+        <v>44694.69111111111</v>
       </c>
       <c r="E51" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Jeffrey Smith</t>
+          <t>Peter Wade</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.34</v>
+        <v>1.92</v>
       </c>
       <c r="H51" t="n">
-        <v>57.28</v>
+        <v>39.54</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L51" s="3" t="n">
-        <v>43835</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44872.95053240741</v>
+        <v>45030.59532407407</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44873.0192824074</v>
+        <v>45030.63699074074</v>
       </c>
       <c r="E52" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Maria Park</t>
+          <t>Anthony Gallagher</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="H52" t="n">
-        <v>101.18</v>
+        <v>108.17</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L52" s="3" t="n">
-        <v>44872</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44104.59052083334</v>
+        <v>44082.09523148148</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44104.65857638889</v>
+        <v>44082.12300925926</v>
       </c>
       <c r="E53" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>George Crawford</t>
+          <t>Sandra Esparza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.77</v>
+        <v>1.54</v>
       </c>
       <c r="H53" t="n">
-        <v>46.12</v>
+        <v>98.47</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L53" s="3" t="n">
-        <v>44104</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45102.13033564815</v>
+        <v>44087.6652662037</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45102.20325231482</v>
+        <v>44087.7465162037</v>
       </c>
       <c r="E54" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Brad Calhoun</t>
+          <t>Alan Villanueva</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.44</v>
+        <v>2.96</v>
       </c>
       <c r="H54" t="n">
-        <v>105.19</v>
+        <v>43.12</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L54" s="3" t="n">
-        <v>45102</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="55">
@@ -2948,28 +2948,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43869.91291666667</v>
+        <v>44829.91462962963</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43869.93930555556</v>
+        <v>44829.96949074074</v>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stephen Richardson</t>
+          <t>Charles Page</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.31</v>
+        <v>4.27</v>
       </c>
       <c r="H55" t="n">
-        <v>109.3</v>
+        <v>84.23</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2979,135 +2979,135 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L55" s="3" t="n">
-        <v>43869</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>44091.31743055556</v>
+        <v>45126.64619212963</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44091.39243055556</v>
+        <v>45126.71771990741</v>
       </c>
       <c r="E56" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kelly May</t>
+          <t>Emily Salas</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.96</v>
+        <v>2.22</v>
       </c>
       <c r="H56" t="n">
-        <v>114.05</v>
+        <v>76.17</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L56" s="3" t="n">
-        <v>44091</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43886.30271990741</v>
+        <v>44997.17070601852</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43886.36938657407</v>
+        <v>44997.1845949074</v>
       </c>
       <c r="E57" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Angela Smith</t>
+          <t>Christopher Lewis</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="H57" t="n">
-        <v>67.29000000000001</v>
+        <v>39.15</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L57" s="3" t="n">
-        <v>43886</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>North Melbourne</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Kensington</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Southbank</t>
-        </is>
-      </c>
       <c r="C58" s="2" t="n">
-        <v>44882.4175</v>
+        <v>44116.31799768518</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44882.49041666667</v>
+        <v>44116.35063657408</v>
       </c>
       <c r="E58" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Frank Spencer</t>
+          <t>Amanda Miller</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.91</v>
+        <v>2.08</v>
       </c>
       <c r="H58" t="n">
-        <v>83.40000000000001</v>
+        <v>47.18</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3117,43 +3117,43 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L58" s="3" t="n">
-        <v>44882</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43848.52800925926</v>
+        <v>44251.14895833333</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43848.54953703703</v>
+        <v>44251.190625</v>
       </c>
       <c r="E59" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yesenia Delgado</t>
+          <t>Peter Petersen</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.74</v>
+        <v>2.21</v>
       </c>
       <c r="H59" t="n">
-        <v>105.67</v>
+        <v>58.93</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3163,49 +3163,49 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L59" s="3" t="n">
-        <v>43848</v>
+        <v>44251</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>44209.22989583333</v>
+        <v>44038.9247337963</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44209.24725694444</v>
+        <v>44038.93792824074</v>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kimberly Casey</t>
+          <t>Erica Osborn</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.09</v>
+        <v>3.14</v>
       </c>
       <c r="H60" t="n">
-        <v>78.89</v>
+        <v>99.05</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="L60" s="3" t="n">
-        <v>44209</v>
+        <v>44038</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3228,30 +3228,30 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43916.36287037037</v>
+        <v>44931.0178125</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43916.3712037037</v>
+        <v>44931.06989583333</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gene Bailey</t>
+          <t>Steven Duncan</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>118.3</v>
+        <v>45.85</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3259,137 +3259,137 @@
         </is>
       </c>
       <c r="L61" s="3" t="n">
-        <v>43916</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44837.04428240741</v>
+        <v>44663.67789351852</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44837.12136574074</v>
+        <v>44663.75150462963</v>
       </c>
       <c r="E62" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Luke Martin</t>
+          <t>Joseph Lee</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.27</v>
+        <v>1.86</v>
       </c>
       <c r="H62" t="n">
-        <v>27.15</v>
+        <v>83.53</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L62" s="3" t="n">
-        <v>44837</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44528.46673611111</v>
+        <v>44053.1009375</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44528.47854166666</v>
+        <v>44053.11065972222</v>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Troy Reid</t>
+          <t>Andrew Sanchez</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.71</v>
+        <v>0.92</v>
       </c>
       <c r="H63" t="n">
-        <v>97.84999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L63" s="3" t="n">
-        <v>44528</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45138.03954861111</v>
+        <v>44270.41451388889</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45138.11107638889</v>
+        <v>44270.45201388889</v>
       </c>
       <c r="E64" t="n">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Abigail Freeman</t>
+          <t>Theresa Bradford</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.15</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
-        <v>41.69</v>
+        <v>30.11</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3397,39 +3397,39 @@
         </is>
       </c>
       <c r="L64" s="3" t="n">
-        <v>45138</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45035.19552083333</v>
+        <v>44085.82005787037</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45035.2746875</v>
+        <v>44085.82978009259</v>
       </c>
       <c r="E65" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Karen Perez</t>
+          <t>Jennifer Ruiz</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.14</v>
+        <v>1.68</v>
       </c>
       <c r="H65" t="n">
-        <v>24.92</v>
+        <v>36.37</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3443,105 +3443,105 @@
         </is>
       </c>
       <c r="L65" s="3" t="n">
-        <v>45035</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>44452.58150462963</v>
+        <v>44218.88060185185</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44452.60997685185</v>
+        <v>44218.94865740741</v>
       </c>
       <c r="E66" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barbara Wiggins</t>
+          <t>Brittany Johnson</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.69</v>
+        <v>1.95</v>
       </c>
       <c r="H66" t="n">
-        <v>73.45999999999999</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L66" s="3" t="n">
-        <v>44452</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>44490.3371875</v>
+        <v>45117.57371527778</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44490.40454861111</v>
+        <v>45117.61677083333</v>
       </c>
       <c r="E67" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ronnie Johnson</t>
+          <t>Lauren Smith</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.42</v>
+        <v>3.91</v>
       </c>
       <c r="H67" t="n">
-        <v>20.03</v>
+        <v>41.81</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L67" s="3" t="n">
-        <v>44490</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3550,254 +3550,254 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>44653.07496527778</v>
+        <v>43928.95084490741</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44653.11454861111</v>
+        <v>43928.97237268519</v>
       </c>
       <c r="E68" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Stacy Turner</t>
+          <t>Andrea Mueller</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="H68" t="n">
-        <v>58.89</v>
+        <v>95.48</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L68" s="3" t="n">
-        <v>44653</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43913.60700231481</v>
+        <v>43981.46950231482</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>43913.61672453704</v>
+        <v>43981.54797453704</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>James Lopez</t>
+          <t>Justin Cherry</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>1.62</v>
       </c>
       <c r="H69" t="n">
-        <v>24.12</v>
+        <v>24.46</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L69" s="3" t="n">
-        <v>43913</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>44369.12300925926</v>
+        <v>44494.9146412037</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44369.18134259259</v>
+        <v>44494.99033564814</v>
       </c>
       <c r="E70" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Brent Harrington</t>
+          <t>Justin Jordan</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>40.58</v>
+        <v>69.2</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L70" s="3" t="n">
-        <v>44369</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45040.07849537037</v>
+        <v>44377.0571875</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45040.14377314815</v>
+        <v>44377.13010416667</v>
       </c>
       <c r="E71" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bryan Baker</t>
+          <t>Crystal Richardson</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.09</v>
+        <v>1.58</v>
       </c>
       <c r="H71" t="n">
-        <v>90.12</v>
+        <v>26.04</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L71" s="3" t="n">
-        <v>45040</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>44908.74181712963</v>
+        <v>44542.135625</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44908.81473379629</v>
+        <v>44542.16826388889</v>
       </c>
       <c r="E72" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Benjamin Thomas</t>
+          <t>Stephanie Crosby</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.86</v>
+        <v>4.28</v>
       </c>
       <c r="H72" t="n">
-        <v>52.23</v>
+        <v>76.28</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L72" s="3" t="n">
-        <v>44908</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>44628.40347222222</v>
+        <v>45111.79086805556</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44628.44513888889</v>
+        <v>45111.86378472222</v>
       </c>
       <c r="E73" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mrs. Abigail Hansen</t>
+          <t>Sarah Evans</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.84</v>
+        <v>4.55</v>
       </c>
       <c r="H73" t="n">
-        <v>22.34</v>
+        <v>85.08</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -3811,85 +3811,85 @@
         </is>
       </c>
       <c r="L73" s="3" t="n">
-        <v>44628</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45132.83225694444</v>
+        <v>44773.07023148148</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45132.86003472222</v>
+        <v>44773.10842592592</v>
       </c>
       <c r="E74" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Michael Scott</t>
+          <t>Matthew Clark</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.92</v>
+        <v>2.63</v>
       </c>
       <c r="H74" t="n">
-        <v>77.75</v>
+        <v>99.72</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L74" s="3" t="n">
-        <v>45132</v>
+        <v>44773</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44308.29726851852</v>
+        <v>44106.52059027777</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44308.34587962963</v>
+        <v>44106.55253472222</v>
       </c>
       <c r="E75" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Jessica Garcia</t>
+          <t>Alexander Burch</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.74</v>
+        <v>2.29</v>
       </c>
       <c r="H75" t="n">
-        <v>47.15</v>
+        <v>95.28</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3899,43 +3899,43 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L75" s="3" t="n">
-        <v>44308</v>
+        <v>44106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43938.8516087963</v>
+        <v>45014.68957175926</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>43938.87174768518</v>
+        <v>45014.75762731482</v>
       </c>
       <c r="E76" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mark Perry</t>
+          <t>Gregory Allen</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.56</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
-        <v>70.98999999999999</v>
+        <v>47.07</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L76" s="3" t="n">
-        <v>43938</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3964,24 +3964,24 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45107.11498842593</v>
+        <v>45124.04907407407</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45107.15873842593</v>
+        <v>45124.06990740741</v>
       </c>
       <c r="E77" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Amanda Brown</t>
+          <t>Andrew Smith</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.24</v>
+        <v>4.07</v>
       </c>
       <c r="H77" t="n">
-        <v>52.14</v>
+        <v>86.83</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3991,43 +3991,43 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L77" s="3" t="n">
-        <v>45107</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44360.47554398148</v>
+        <v>44346.91341435185</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44360.52346064815</v>
+        <v>44346.9891087963</v>
       </c>
       <c r="E78" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Erika Smith</t>
+          <t>Monica Blair</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.34</v>
+        <v>4.15</v>
       </c>
       <c r="H78" t="n">
-        <v>93.28</v>
+        <v>57.55</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -4041,39 +4041,39 @@
         </is>
       </c>
       <c r="L78" s="3" t="n">
-        <v>44360</v>
+        <v>44346</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43841.62859953703</v>
+        <v>44460.75553240741</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>43841.7077662037</v>
+        <v>44460.80553240741</v>
       </c>
       <c r="E79" t="n">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nancy Delacruz</t>
+          <t>Jonathon Patterson</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.7</v>
+        <v>0.91</v>
       </c>
       <c r="H79" t="n">
-        <v>99.11</v>
+        <v>89.37</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -4083,103 +4083,103 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L79" s="3" t="n">
-        <v>43841</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44289.94868055556</v>
+        <v>44072.60893518518</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44290.030625</v>
+        <v>44072.68949074074</v>
       </c>
       <c r="E80" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Jacob Jensen</t>
+          <t>Susan Knight</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.44</v>
+        <v>4.57</v>
       </c>
       <c r="H80" t="n">
-        <v>113.84</v>
+        <v>51.93</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L80" s="3" t="n">
-        <v>44289</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43916.89364583333</v>
+        <v>44837.19141203703</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43916.91239583334</v>
+        <v>44837.24974537037</v>
       </c>
       <c r="E81" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>John Blair</t>
+          <t>Christine White</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="H81" t="n">
-        <v>90.15000000000001</v>
+        <v>30.91</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L81" s="3" t="n">
-        <v>43916</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="82">
@@ -4190,31 +4190,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44978.43920138889</v>
+        <v>43903.53637731481</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44978.48434027778</v>
+        <v>43903.56693287037</v>
       </c>
       <c r="E82" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cheryl Mitchell</t>
+          <t>Michael Mays</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="H82" t="n">
-        <v>112.07</v>
+        <v>64.95</v>
       </c>
       <c r="I82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         </is>
       </c>
       <c r="L82" s="3" t="n">
-        <v>44978</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4240,27 +4240,27 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44176.75675925926</v>
+        <v>44230.50108796296</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44176.78314814815</v>
+        <v>44230.51636574074</v>
       </c>
       <c r="E83" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Susan Silva</t>
+          <t>Shari Moore</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.26</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>110.62</v>
+        <v>26.11</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="L83" s="3" t="n">
-        <v>44176</v>
+        <v>44230</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4286,30 +4286,30 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44577.40775462963</v>
+        <v>45137.93696759259</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44577.43344907407</v>
+        <v>45137.94252314815</v>
       </c>
       <c r="E84" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Maria Watson</t>
+          <t>Terry Smith</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.84</v>
+        <v>3.94</v>
       </c>
       <c r="H84" t="n">
-        <v>44.75</v>
+        <v>33.69</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4317,42 +4317,42 @@
         </is>
       </c>
       <c r="L84" s="3" t="n">
-        <v>44577</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44138.18574074074</v>
+        <v>44557.98425925926</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44138.19962962963</v>
+        <v>44558.05578703704</v>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Samantha Rice</t>
+          <t>Allen Griffin</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="H85" t="n">
-        <v>108.17</v>
+        <v>65.03</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
@@ -4363,105 +4363,105 @@
         </is>
       </c>
       <c r="L85" s="3" t="n">
-        <v>44138</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44064.83811342593</v>
+        <v>45072.30027777778</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44064.89019675926</v>
+        <v>45072.35097222222</v>
       </c>
       <c r="E86" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gabriel Tran</t>
+          <t>Erica Martinez</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
-        <v>59.09</v>
+        <v>86.77</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L86" s="3" t="n">
-        <v>44064</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44131.62598379629</v>
+        <v>44638.75571759259</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44131.65792824074</v>
+        <v>44638.76613425926</v>
       </c>
       <c r="E87" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Anthony Gould</t>
+          <t>Jessica Austin</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.59</v>
+        <v>1.38</v>
       </c>
       <c r="H87" t="n">
-        <v>28.44</v>
+        <v>41.92</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L87" s="3" t="n">
-        <v>44131</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4470,24 +4470,24 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44016.4812037037</v>
+        <v>44548.75881944445</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44016.49300925926</v>
+        <v>44548.81298611111</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Christopher Avery</t>
+          <t>Angela Smith</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.51</v>
+        <v>1.81</v>
       </c>
       <c r="H88" t="n">
-        <v>59.17</v>
+        <v>48.56</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="L88" s="3" t="n">
-        <v>44016</v>
+        <v>44548</v>
       </c>
     </row>
     <row r="89">
@@ -4512,34 +4512,34 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45061.82974537037</v>
+        <v>45072.39633101852</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45061.87141203704</v>
+        <v>45072.43938657407</v>
       </c>
       <c r="E89" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Joseph Thomas</t>
+          <t>Michelle Smith</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.84</v>
+        <v>2.95</v>
       </c>
       <c r="H89" t="n">
-        <v>75.78</v>
+        <v>20.75</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4547,53 +4547,53 @@
         </is>
       </c>
       <c r="L89" s="3" t="n">
-        <v>45061</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>East Melbourne</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Kensington</t>
-        </is>
-      </c>
       <c r="C90" s="2" t="n">
-        <v>44665.80207175926</v>
+        <v>44546.98983796296</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44665.87498842592</v>
+        <v>44547.01761574074</v>
       </c>
       <c r="E90" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Angel Young Jr.</t>
+          <t>Mr. Gary Evans</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.81</v>
+        <v>3.05</v>
       </c>
       <c r="H90" t="n">
-        <v>75.87</v>
+        <v>93.41</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="J90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L90" s="3" t="n">
-        <v>44665</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="91">
@@ -4604,215 +4604,215 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45046.82703703704</v>
+        <v>43972.87650462963</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45046.90203703703</v>
+        <v>43972.88553240741</v>
       </c>
       <c r="E91" t="n">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Brian Jackson</t>
+          <t>Dawn Thomas</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="H91" t="n">
-        <v>22.6</v>
+        <v>58.48</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="J91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="L91" s="3" t="n">
-        <v>45046</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44399.87372685185</v>
+        <v>43988.32284722223</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44399.88761574074</v>
+        <v>43988.34854166667</v>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tiffany Johnson</t>
+          <t>Pamela Ford</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.04</v>
+        <v>4.53</v>
       </c>
       <c r="H92" t="n">
-        <v>116.36</v>
+        <v>68.52</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L92" s="3" t="n">
-        <v>44399</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44336.03887731482</v>
+        <v>44328.40519675926</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44336.11179398148</v>
+        <v>44328.4871412037</v>
       </c>
       <c r="E93" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Michelle Tanner</t>
+          <t>David Hickman</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.92</v>
+        <v>4.13</v>
       </c>
       <c r="H93" t="n">
-        <v>70.02</v>
+        <v>107.78</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L93" s="3" t="n">
-        <v>44336</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>44101.92497685185</v>
+        <v>44920.20107638889</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44101.96803240741</v>
+        <v>44920.22815972222</v>
       </c>
       <c r="E94" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Michael Stevenson</t>
+          <t>Rebecca Graham</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="H94" t="n">
-        <v>90.87</v>
+        <v>116.21</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L94" s="3" t="n">
-        <v>44101</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Carlton</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>44410.29072916666</v>
+        <v>43948.22560185185</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44410.31225694445</v>
+        <v>43948.24435185185</v>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Edwin Parks</t>
+          <t>Clifford Gentry</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.84</v>
+        <v>2.09</v>
       </c>
       <c r="H95" t="n">
-        <v>114.87</v>
+        <v>28.25</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -4823,42 +4823,42 @@
         </is>
       </c>
       <c r="L95" s="3" t="n">
-        <v>44410</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>44986.37599537037</v>
+        <v>44917.71402777778</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44986.38641203703</v>
+        <v>44917.72930555556</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Chelsey Gray</t>
+          <t>Dean Perkins</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.53</v>
+        <v>1.81</v>
       </c>
       <c r="H96" t="n">
-        <v>70.23999999999999</v>
+        <v>75.31999999999999</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
@@ -4869,45 +4869,45 @@
         </is>
       </c>
       <c r="L96" s="3" t="n">
-        <v>44986</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>44393.40658564815</v>
+        <v>44546.3944212963</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44393.48991898148</v>
+        <v>44546.43053240741</v>
       </c>
       <c r="E97" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ronald Miller</t>
+          <t>William Merritt</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.38</v>
+        <v>2.22</v>
       </c>
       <c r="H97" t="n">
-        <v>96.12</v>
+        <v>97.28</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="J97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4915,39 +4915,39 @@
         </is>
       </c>
       <c r="L97" s="3" t="n">
-        <v>44393</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Southbank</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43931.5403125</v>
+        <v>44246.57064814815</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>43931.59934027777</v>
+        <v>44246.61648148148</v>
       </c>
       <c r="E98" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Patrick Pope</t>
+          <t>Lindsay Bailey</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.03</v>
+        <v>4.23</v>
       </c>
       <c r="H98" t="n">
-        <v>28.02</v>
+        <v>57.07</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="L98" s="3" t="n">
-        <v>43931</v>
+        <v>44246</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4976,70 +4976,70 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43958.21944444445</v>
+        <v>44649.4305787037</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>43958.29930555556</v>
+        <v>44649.45141203704</v>
       </c>
       <c r="E99" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Jacob Barber</t>
+          <t>Antonio Sims</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.34</v>
+        <v>3.97</v>
       </c>
       <c r="H99" t="n">
-        <v>68.13</v>
+        <v>68.37</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
       <c r="J99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L99" s="3" t="n">
-        <v>43958</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45092.82517361111</v>
+        <v>43922.42902777778</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45092.85642361111</v>
+        <v>43922.45958333334</v>
       </c>
       <c r="E100" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Jonathan Castaneda</t>
+          <t>Victor Henderson</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.25</v>
+        <v>3.73</v>
       </c>
       <c r="H100" t="n">
-        <v>69.34999999999999</v>
+        <v>110.99</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -5053,39 +5053,39 @@
         </is>
       </c>
       <c r="L100" s="3" t="n">
-        <v>45092</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44479.67579861111</v>
+        <v>44286.98152777777</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44479.7334375</v>
+        <v>44287.01763888889</v>
       </c>
       <c r="E101" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Martha Butler</t>
+          <t>Jeffery Burns</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>0.91</v>
       </c>
       <c r="H101" t="n">
-        <v>91.34</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -5099,45 +5099,45 @@
         </is>
       </c>
       <c r="L101" s="3" t="n">
-        <v>44479</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44136.91774305556</v>
+        <v>44784.76070601852</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44136.97607638889</v>
+        <v>44784.83292824074</v>
       </c>
       <c r="E102" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sarah Stewart</t>
+          <t>Lori Wiggins</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.57</v>
+        <v>1.08</v>
       </c>
       <c r="H102" t="n">
-        <v>93.69</v>
+        <v>66.62</v>
       </c>
       <c r="I102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5145,183 +5145,183 @@
         </is>
       </c>
       <c r="L102" s="3" t="n">
-        <v>44136</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>South Wharf</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>44727.46910879629</v>
+        <v>43947.18074074074</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44727.48994212963</v>
+        <v>43947.25782407408</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Edward Henry</t>
+          <t>Jessica Brown</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.49</v>
+        <v>4.32</v>
       </c>
       <c r="H103" t="n">
-        <v>22.13</v>
+        <v>44.18</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L103" s="3" t="n">
-        <v>44727</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>44782.72219907407</v>
+        <v>44492.03930555555</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44782.76386574074</v>
+        <v>44492.07125</v>
       </c>
       <c r="E104" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Willie Fleming</t>
+          <t>Kimberly Luna</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="H104" t="n">
-        <v>92.01000000000001</v>
+        <v>89.72</v>
       </c>
       <c r="I104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L104" s="3" t="n">
-        <v>44782</v>
+        <v>44492</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Carlton</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>44595.80459490741</v>
+        <v>43896.28690972222</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44595.82403935185</v>
+        <v>43896.31954861111</v>
       </c>
       <c r="E105" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Matthew Stephenson</t>
+          <t>Nicholas Baker</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
-        <v>27.68</v>
+        <v>112.61</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
       </c>
       <c r="J105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Okay</t>
         </is>
       </c>
       <c r="L105" s="3" t="n">
-        <v>44595</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Port Melbourne</t>
+          <t>Parkville</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>South Wharf</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>44224.46434027778</v>
+        <v>44386.31049768518</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44224.5178125</v>
+        <v>44386.33619212963</v>
       </c>
       <c r="E106" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Gina King</t>
+          <t>Brittany Taylor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="H106" t="n">
-        <v>53.28</v>
+        <v>106.17</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="J106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -5329,131 +5329,131 @@
         </is>
       </c>
       <c r="L106" s="3" t="n">
-        <v>44224</v>
+        <v>44386</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>East Melbourne</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>44394.38304398148</v>
+        <v>44227.9209375</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44394.41290509259</v>
+        <v>44227.94524305555</v>
       </c>
       <c r="E107" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cindy Lawson</t>
+          <t>Holly Blanchard</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.41</v>
+        <v>2.89</v>
       </c>
       <c r="H107" t="n">
-        <v>36.79</v>
+        <v>70.14</v>
       </c>
       <c r="I107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L107" s="3" t="n">
-        <v>44394</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>West Melbourne</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Carlton</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>South Wharf</t>
-        </is>
-      </c>
       <c r="C108" s="2" t="n">
-        <v>45093.84512731482</v>
+        <v>44702.52240740741</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45093.89165509259</v>
+        <v>44702.54879629629</v>
       </c>
       <c r="E108" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Daniel Lyons</t>
+          <t>Angela Smith</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.71</v>
+        <v>3.39</v>
       </c>
       <c r="H108" t="n">
-        <v>119.18</v>
+        <v>110.27</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="J108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Okay</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L108" s="3" t="n">
-        <v>45093</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>West Melbourne</t>
+          <t>North Melbourne</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Kensington</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>44107.65574074074</v>
+        <v>44191.47001157407</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44107.72518518518</v>
+        <v>44191.51306712963</v>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Diana Quinn</t>
+          <t>James Sullivan</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.63</v>
+        <v>3.14</v>
       </c>
       <c r="H109" t="n">
-        <v>53.06</v>
+        <v>59.15</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -5467,45 +5467,45 @@
         </is>
       </c>
       <c r="L109" s="3" t="n">
-        <v>44107</v>
+        <v>44191</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kensington</t>
+          <t>East Melbourne</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Parkville</t>
+          <t>Port Melbourne</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>44917.79694444445</v>
+        <v>44566.39016203704</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44917.83166666667</v>
+        <v>44566.42696759259</v>
       </c>
       <c r="E110" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>David Hancock</t>
+          <t>Brandon Newton</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.89</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
-        <v>21.16</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="I110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="L110" s="3" t="n">
-        <v>44917</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="111">
@@ -5524,42 +5524,42 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>North Melbourne</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>44907.35233796296</v>
+        <v>44072.03967592592</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44907.35719907407</v>
+        <v>44072.1125925926</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Kayla Petersen</t>
+          <t>Kara Vincent</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.72</v>
+        <v>1.28</v>
       </c>
       <c r="H111" t="n">
-        <v>49.75</v>
+        <v>35.91</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="L111" s="3" t="n">
-        <v>44907</v>
+        <v>44072</v>
       </c>
     </row>
   </sheetData>
